--- a/docs/Collector1/Collector1_05.08.24_output.xlsx
+++ b/docs/Collector1/Collector1_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,721 +510,911 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730744225.7638044</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730744225.7638044.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>277.46</v>
       </c>
-      <c r="J3" t="n">
-        <v>277.46</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+      <c r="M3" t="n">
+        <v>275.69</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.769999999999982</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730744230.2705877</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1730744231.7191958</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730744230.2705877.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730744231.7191958.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>127.93</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>128.27</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730744233.2161427</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730744233.2161427.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>127.59</v>
       </c>
-      <c r="J5" t="n">
-        <v>127.59</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="M5" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730744234.6348405</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1730744235.3829803</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730744234.6348405.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730744235.3829803.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>6405.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>6426.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>21</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730744237.604946</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730744237.604946.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>6409</v>
       </c>
-      <c r="J7" t="n">
-        <v>6409</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="M7" t="n">
+        <v>6394.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730744238.8283432</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>1730744239.2832499</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730744238.8283432.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730744239.2832499.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>495.95</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>496.9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>0.9499999999999886</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730744241.3333507</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730744241.3333507.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>493.7</v>
       </c>
-      <c r="J9" t="n">
-        <v>493.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="M9" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.8000000000000114</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730744242.3893397</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1730744243.3354518</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744242.3893397.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744243.3354518.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>223.87</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>224.35</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730744245.5343213</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744245.5343213.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>223.63</v>
       </c>
-      <c r="J11" t="n">
-        <v>223.63</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="M11" t="n">
+        <v>223.39</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730744247.075822</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1730744247.576431</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730744247.075822.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730744247.576431.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>1000</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>1006</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730744249.7300143</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CNY1730744249.7300143.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>11.925</v>
       </c>
-      <c r="J13" t="n">
-        <v>11.925</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="M13" t="n">
+        <v>11.928</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730744256.1523564</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>1730744257.8923433</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744256.1523564.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744257.8923433.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>160.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>160.84</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730744259.9893277</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>1730744261.7830515</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744259.9893277.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744261.7830515.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>49.065</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>49.175</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730744263.4427307</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744263.4427307.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>48.915</v>
       </c>
-      <c r="J16" t="n">
-        <v>48.915</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="M16" t="n">
+        <v>48.845</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730744264.5457828</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1730744266.3690398</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730744264.5457828.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730744266.3690398.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>1380.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>1380.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1212,130 +1422,166 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730744269.3399684</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1730744269.6686475</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730744269.3399684.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730744269.6686475.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>58.83</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>59.51</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>0.6799999999999997</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730744274.2986376</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SELG1730744274.2986376.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>55.77</v>
       </c>
-      <c r="J19" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="M19" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730744281.5299077</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730744281.5299077.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>141.34</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>141.34</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1343,319 +1589,403 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730744282.252012</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1730744283.5913038</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744282.252012.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744283.5913038.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>19.966</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>19.91</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>-0.05600000000000094</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730744285.371897</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744285.371897.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>19.781</v>
       </c>
-      <c r="J22" t="n">
-        <v>19.781</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="M22" t="n">
+        <v>19.761</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.01999999999999957</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730744292.6259866</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>1730744293.8555624</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744292.6259866.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744293.8555624.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>0.09536000000000001</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>0.09516000000000001</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>-0.0002000000000000057</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730744297.0718312</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730744297.0718312.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>94.94</v>
       </c>
-      <c r="J24" t="n">
-        <v>94.94</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="M24" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.2099999999999937</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730744298.1082644</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>1730744299.546307</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744298.1082644.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744299.546307.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>2894.9</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>2903.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
         <v>8.699999999999818</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730744301.366684</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744301.366684.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>2894</v>
       </c>
-      <c r="J26" t="n">
-        <v>2894</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="M26" t="n">
+        <v>2888</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730744301.501053</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>1730744302.8446643</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730744301.501053.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730744302.8446643.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="L27" t="n">
         <v>11.884</v>
       </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>11.914</v>
       </c>
-      <c r="K27" t="n">
+      <c r="N27" t="n">
         <v>0.02999999999999936</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,6 +2023,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1701,11 +2046,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.05600000000000094</v>
+        <v>-0.07600000000000051</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.03800000000000026</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1714,11 +2068,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1727,11 +2090,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9499999999999886</v>
+        <v>0.1499999999999773</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.07499999999998863</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1740,11 +2112,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.699999999999818</v>
+        <v>2.699999999999818</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="n">
+        <v>1.349999999999909</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1753,11 +2134,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1099999999999994</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.01999999999999957</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1766,11 +2156,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4799999999999898</v>
+        <v>0.2399999999999807</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.1199999999999903</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1779,11 +2178,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3400000000000034</v>
+        <v>0.230000000000004</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.115000000000002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1792,11 +2200,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.2099999999999937</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.2099999999999937</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1810,6 +2227,15 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.0002000000000000057</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1823,6 +2249,15 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.6799999999999997</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1831,11 +2266,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1849,6 +2293,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1862,6 +2315,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1875,6 +2337,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1888,6 +2359,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.02999999999999936</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1896,11 +2376,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.769999999999982</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>-1.769999999999982</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.64</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1909,11 +2398,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1927,6 +2425,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1940,6 +2447,11 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
